--- a/data/trans_dic/P39A4_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Clase-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9462535944650765</v>
+        <v>0.9462535944650764</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.9517826297953883</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9239334972905858</v>
+        <v>0.9237253907003481</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9322538563353617</v>
+        <v>0.9311075172837435</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9341166220219423</v>
+        <v>0.934560418705895</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.962641552062541</v>
+        <v>0.9623877937634128</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9673200996919911</v>
+        <v>0.9653802318687907</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9601025588310564</v>
+        <v>0.960541775271305</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.9171290798838423</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9259275867174882</v>
+        <v>0.9259275867174884</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9063560677458314</v>
+        <v>0.9089168692630728</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8862186490130045</v>
+        <v>0.8898791456297117</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9052224600742196</v>
+        <v>0.9074092296933619</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9544021971643409</v>
+        <v>0.9558347620094687</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9388275515973428</v>
+        <v>0.9386990242639196</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9403976595942215</v>
+        <v>0.9415292924075999</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.9191594952470302</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9178260790878296</v>
+        <v>0.9178260790878298</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8850919365473708</v>
+        <v>0.883194048173732</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8789058794900108</v>
+        <v>0.8830115147400992</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8912678825278234</v>
+        <v>0.8921379529223613</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9433785573665655</v>
+        <v>0.9412848669673223</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9477375285830802</v>
+        <v>0.9486399867763077</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9380499018427496</v>
+        <v>0.9384013702731762</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9177808504424525</v>
+        <v>0.9177808504424524</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9257254487725788</v>
+        <v>0.9257254487725786</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9212660189274688</v>
+        <v>0.921266018927469</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8953644306584067</v>
+        <v>0.8964808617433913</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.905716987946621</v>
+        <v>0.9074694636327221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9071384585895231</v>
+        <v>0.9073837111597259</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9352717956206551</v>
+        <v>0.9358024508015279</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9396301480134496</v>
+        <v>0.9402330849352433</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9333711633261322</v>
+        <v>0.9340418778146986</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8991643420697186</v>
+        <v>0.899164342069719</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.9119618821459238</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8623372962201982</v>
+        <v>0.8594795828935521</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8939346105530812</v>
+        <v>0.893637860542543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8895933721163858</v>
+        <v>0.8909744170551515</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.925240203332525</v>
+        <v>0.9260953444695676</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9284742557513955</v>
+        <v>0.9289041250072581</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9216936751626993</v>
+        <v>0.9224700752064237</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.8656046971630404</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9201025358977944</v>
+        <v>0.9201025358977943</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9088030565508777</v>
+        <v>0.9088030565508778</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7637165467876311</v>
+        <v>0.7666945689387874</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8988897750138236</v>
+        <v>0.8953792066931476</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8838847667654424</v>
+        <v>0.8801648286330234</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9327479411658187</v>
+        <v>0.9295702371031528</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9375254455564915</v>
+        <v>0.9362699658962528</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9287045974846827</v>
+        <v>0.9280638056659785</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9189291301579985</v>
+        <v>0.9189291301579982</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.9237710192454183</v>
+        <v>0.9237710192454182</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9214223964407133</v>
+        <v>0.9214223964407132</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9077629486629938</v>
+        <v>0.9072692431331049</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9158452917520481</v>
+        <v>0.9157717140805623</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9139365434380661</v>
+        <v>0.9137929291010525</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9302413482749273</v>
+        <v>0.9299185392619633</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9315771488385522</v>
+        <v>0.9318063674970296</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9278275133633143</v>
+        <v>0.9275255471715413</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>496640</v>
+        <v>496528</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>445367</v>
+        <v>444820</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>948371</v>
+        <v>948822</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>517447</v>
+        <v>517310</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>462120</v>
+        <v>461193</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>974754</v>
+        <v>975200</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>428988</v>
+        <v>430200</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>358103</v>
+        <v>359582</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>794234</v>
+        <v>796153</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>451729</v>
+        <v>452407</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>379361</v>
+        <v>379310</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>825096</v>
+        <v>826089</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>394115</v>
+        <v>393270</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>157408</v>
+        <v>158143</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>556486</v>
+        <v>557030</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>420069</v>
+        <v>419136</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>169735</v>
+        <v>169897</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>585696</v>
+        <v>585915</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>942111</v>
+        <v>943285</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>744799</v>
+        <v>746240</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1700467</v>
+        <v>1700927</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>984101</v>
+        <v>984660</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>772687</v>
+        <v>773183</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1749642</v>
+        <v>1750899</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>404451</v>
+        <v>403111</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>662973</v>
+        <v>662753</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1076988</v>
+        <v>1078660</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>433953</v>
+        <v>434354</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>688589</v>
+        <v>688908</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1115850</v>
+        <v>1116790</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>148193</v>
+        <v>148771</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>666823</v>
+        <v>664219</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>827202</v>
+        <v>823721</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>180992</v>
+        <v>180376</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>695485</v>
+        <v>694553</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>869148</v>
+        <v>868548</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2878868</v>
+        <v>2877302</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3083378</v>
+        <v>3083130</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5975399</v>
+        <v>5974460</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2950155</v>
+        <v>2949132</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3136343</v>
+        <v>3137114</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>6066220</v>
+        <v>6064246</v>
       </c>
     </row>
     <row r="32">
